--- a/sample/Week 7_Demo Data w Solutions.xlsx
+++ b/sample/Week 7_Demo Data w Solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download_chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\MG620\MG620-Final-Project\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1380546B-A781-4758-AB4A-57719CFEBBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D942FED-CDCD-4E51-9680-9A911B06AFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="-120" windowWidth="37395" windowHeight="21840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-2400" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -7466,7 +7466,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7558,7 +7558,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B86"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11725,8 +11725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B957C15-F2FC-4188-8773-B0BB3C6A56BF}">
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="P99" sqref="P99"/>
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15661,8 +15661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECB657E-EE61-42E9-BC2C-6C97E9FF31BE}">
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
